--- a/DataTable/DataTables.xlsx
+++ b/DataTable/DataTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\github\chapter5\RTSTest\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53879486-0BE8-4D7F-97CC-ADE983A2B151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1F70DF-2740-42FE-955B-904B5381F782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="750" windowWidth="19875" windowHeight="15525" activeTab="1" xr2:uid="{21D361D3-2723-426A-B3F1-F7B6AD44FA94}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
